--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_4_3.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_4_3.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_0</t>
+          <t>model_4_3_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.5698552127148301</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.3505366604854934</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.6501323513154735</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.06432008856170524</v>
       </c>
       <c r="F2" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4760434925556183</v>
       </c>
       <c r="G2" t="n">
-        <v>2.097197294235229</v>
+        <v>1.815451502799988</v>
       </c>
       <c r="H2" t="n">
-        <v>1.011167883872986</v>
+        <v>0.3715589046478271</v>
       </c>
       <c r="I2" t="n">
-        <v>1.586124777793884</v>
+        <v>1.13597297668457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_22</t>
+          <t>model_4_3_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6171988609290131</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.3441298721942034</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.722389260662942</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.09782038628046019</v>
       </c>
       <c r="F3" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4236480593681335</v>
       </c>
       <c r="G3" t="n">
-        <v>2.097197294235229</v>
+        <v>1.806839227676392</v>
       </c>
       <c r="H3" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2948221564292908</v>
       </c>
       <c r="I3" t="n">
-        <v>1.586124777793884</v>
+        <v>1.095301628112793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_21</t>
+          <t>model_4_3_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6202536346294371</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.3380965063458155</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7331921212445274</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1058034741937606</v>
       </c>
       <c r="F4" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4202672839164734</v>
       </c>
       <c r="G4" t="n">
-        <v>2.097197294235229</v>
+        <v>1.798728704452515</v>
       </c>
       <c r="H4" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2833495438098907</v>
       </c>
       <c r="I4" t="n">
-        <v>1.586124777793884</v>
+        <v>1.085609555244446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_20</t>
+          <t>model_4_3_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6244103050877862</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2608440465238098</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7217856476565176</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1463923217375137</v>
       </c>
       <c r="F5" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4156670868396759</v>
       </c>
       <c r="G5" t="n">
-        <v>2.097197294235229</v>
+        <v>1.694882750511169</v>
       </c>
       <c r="H5" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2954632043838501</v>
       </c>
       <c r="I5" t="n">
-        <v>1.586124777793884</v>
+        <v>1.036332249641418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_19</t>
+          <t>model_4_3_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6247724682407161</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.3377694537102744</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7356239878005664</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1069963921063649</v>
       </c>
       <c r="F6" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4152662754058838</v>
       </c>
       <c r="G6" t="n">
-        <v>2.097197294235229</v>
+        <v>1.79828941822052</v>
       </c>
       <c r="H6" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2807669043540955</v>
       </c>
       <c r="I6" t="n">
-        <v>1.586124777793884</v>
+        <v>1.084161281585693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_18</t>
+          <t>model_4_3_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6255831657277684</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.3351565701766013</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7443160226019847</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1121068909424809</v>
       </c>
       <c r="F7" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4143691062927246</v>
       </c>
       <c r="G7" t="n">
-        <v>2.097197294235229</v>
+        <v>1.794776916503906</v>
       </c>
       <c r="H7" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2715359926223755</v>
       </c>
       <c r="I7" t="n">
-        <v>1.586124777793884</v>
+        <v>1.077956914901733</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_17</t>
+          <t>model_4_3_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6269986228016381</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.3346017149713765</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7452240634368317</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1128067553481981</v>
       </c>
       <c r="F8" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4128026366233826</v>
       </c>
       <c r="G8" t="n">
-        <v>2.097197294235229</v>
+        <v>1.794031143188477</v>
       </c>
       <c r="H8" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2705716490745544</v>
       </c>
       <c r="I8" t="n">
-        <v>1.586124777793884</v>
+        <v>1.077107310295105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_16</t>
+          <t>model_4_3_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6297030882182301</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.3150918456784761</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7357072265101904</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1203239599592709</v>
       </c>
       <c r="F9" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4098095595836639</v>
       </c>
       <c r="G9" t="n">
-        <v>2.097197294235229</v>
+        <v>1.767804980278015</v>
       </c>
       <c r="H9" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2806785106658936</v>
       </c>
       <c r="I9" t="n">
-        <v>1.586124777793884</v>
+        <v>1.067980885505676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_15</t>
+          <t>model_4_3_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6325929001836089</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2969822147445305</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7301469247255448</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1286503809524016</v>
       </c>
       <c r="F10" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4066114127635956</v>
       </c>
       <c r="G10" t="n">
-        <v>2.097197294235229</v>
+        <v>1.74346125125885</v>
       </c>
       <c r="H10" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2865835428237915</v>
       </c>
       <c r="I10" t="n">
-        <v>1.586124777793884</v>
+        <v>1.05787205696106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_14</t>
+          <t>model_4_3_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6336619665321834</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2931018286744997</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7323691380840114</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1318394464650635</v>
       </c>
       <c r="F11" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4054282605648041</v>
       </c>
       <c r="G11" t="n">
-        <v>2.097197294235229</v>
+        <v>1.738245129585266</v>
       </c>
       <c r="H11" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2842235565185547</v>
       </c>
       <c r="I11" t="n">
-        <v>1.586124777793884</v>
+        <v>1.054000377655029</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_13</t>
+          <t>model_4_3_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6354901965809923</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2842455028699264</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7329558765506824</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1372729485169701</v>
       </c>
       <c r="F12" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4034049510955811</v>
       </c>
       <c r="G12" t="n">
-        <v>2.097197294235229</v>
+        <v>1.726339936256409</v>
       </c>
       <c r="H12" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2836004197597504</v>
       </c>
       <c r="I12" t="n">
-        <v>1.586124777793884</v>
+        <v>1.047403812408447</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_23</t>
+          <t>model_4_3_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6355201661232528</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2851640621457179</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7345488844236396</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1373902679303906</v>
       </c>
       <c r="F13" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4033717811107635</v>
       </c>
       <c r="G13" t="n">
-        <v>2.097197294235229</v>
+        <v>1.727574825286865</v>
       </c>
       <c r="H13" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2819086611270905</v>
       </c>
       <c r="I13" t="n">
-        <v>1.586124777793884</v>
+        <v>1.047261238098145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_12</t>
+          <t>model_4_3_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6363308789568021</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2810746682160996</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7342831170973005</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1396777322547571</v>
       </c>
       <c r="F14" t="n">
-        <v>1.087675213813782</v>
+        <v>0.402474582195282</v>
       </c>
       <c r="G14" t="n">
-        <v>2.097197294235229</v>
+        <v>1.722077608108521</v>
       </c>
       <c r="H14" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2821908891201019</v>
       </c>
       <c r="I14" t="n">
-        <v>1.586124777793884</v>
+        <v>1.04448413848877</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_10</t>
+          <t>model_4_3_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6364875824996012</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2801014300189011</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7343017205393851</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1402559077961177</v>
       </c>
       <c r="F15" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4023011326789856</v>
       </c>
       <c r="G15" t="n">
-        <v>2.097197294235229</v>
+        <v>1.720769286155701</v>
       </c>
       <c r="H15" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2821711301803589</v>
       </c>
       <c r="I15" t="n">
-        <v>1.586124777793884</v>
+        <v>1.043782234191895</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_9</t>
+          <t>model_4_3_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6378673422754128</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2735224566033623</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7346249793860167</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1442452343432046</v>
       </c>
       <c r="F16" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4007741510868073</v>
       </c>
       <c r="G16" t="n">
-        <v>2.097197294235229</v>
+        <v>1.711925506591797</v>
       </c>
       <c r="H16" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2818278670310974</v>
       </c>
       <c r="I16" t="n">
-        <v>1.586124777793884</v>
+        <v>1.038938999176025</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_8</t>
+          <t>model_4_3_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6382092762631491</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2614061484674439</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7185947573870605</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1447491633884115</v>
       </c>
       <c r="F17" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4003957211971283</v>
       </c>
       <c r="G17" t="n">
-        <v>2.097197294235229</v>
+        <v>1.695638298988342</v>
       </c>
       <c r="H17" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2988519072532654</v>
       </c>
       <c r="I17" t="n">
-        <v>1.586124777793884</v>
+        <v>1.038327217102051</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_7</t>
+          <t>model_4_3_24</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6387924901697406</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2558437362741839</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7142335865910153</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1462146949463606</v>
       </c>
       <c r="F18" t="n">
-        <v>1.087675213813782</v>
+        <v>0.399750292301178</v>
       </c>
       <c r="G18" t="n">
-        <v>2.097197294235229</v>
+        <v>1.688161134719849</v>
       </c>
       <c r="H18" t="n">
-        <v>1.011167883872986</v>
+        <v>0.3034834861755371</v>
       </c>
       <c r="I18" t="n">
-        <v>1.586124777793884</v>
+        <v>1.036547899246216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_6</t>
+          <t>model_4_3_19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.639055149509521</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.258021214710882</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7196718688246571</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.147176501152759</v>
       </c>
       <c r="F19" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3994596004486084</v>
       </c>
       <c r="G19" t="n">
-        <v>2.097197294235229</v>
+        <v>1.691088199615479</v>
       </c>
       <c r="H19" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2977080345153809</v>
       </c>
       <c r="I19" t="n">
-        <v>1.586124777793884</v>
+        <v>1.035380244255066</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_5</t>
+          <t>model_4_3_21</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6391210709626526</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2547204585556124</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7152644163512909</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1472971597539907</v>
       </c>
       <c r="F20" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3993866443634033</v>
       </c>
       <c r="G20" t="n">
-        <v>2.097197294235229</v>
+        <v>1.686650991439819</v>
       </c>
       <c r="H20" t="n">
-        <v>1.011167883872986</v>
+        <v>0.3023887276649475</v>
       </c>
       <c r="I20" t="n">
-        <v>1.586124777793884</v>
+        <v>1.035233736038208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_4</t>
+          <t>model_4_3_23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6393750724115946</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.252677931587221</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7141686340390767</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1480427457460599</v>
       </c>
       <c r="F21" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3991055190563202</v>
       </c>
       <c r="G21" t="n">
-        <v>2.097197294235229</v>
+        <v>1.683905482292175</v>
       </c>
       <c r="H21" t="n">
-        <v>1.011167883872986</v>
+        <v>0.3035524487495422</v>
       </c>
       <c r="I21" t="n">
-        <v>1.586124777793884</v>
+        <v>1.034328579902649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_3</t>
+          <t>model_4_3_18</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.639437271812294</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2560234252797626</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7197438788419143</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1483779854474702</v>
       </c>
       <c r="F22" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3990366756916046</v>
       </c>
       <c r="G22" t="n">
-        <v>2.097197294235229</v>
+        <v>1.688402652740479</v>
       </c>
       <c r="H22" t="n">
-        <v>1.011167883872986</v>
+        <v>0.297631561756134</v>
       </c>
       <c r="I22" t="n">
-        <v>1.586124777793884</v>
+        <v>1.033921480178833</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_2</t>
+          <t>model_4_3_20</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6394558959291943</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2534020508239254</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7159474844452689</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1483500082761545</v>
       </c>
       <c r="F23" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3990160524845123</v>
       </c>
       <c r="G23" t="n">
-        <v>2.097197294235229</v>
+        <v>1.684878826141357</v>
       </c>
       <c r="H23" t="n">
-        <v>1.011167883872986</v>
+        <v>0.301663339138031</v>
       </c>
       <c r="I23" t="n">
-        <v>1.586124777793884</v>
+        <v>1.033955574035645</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_1</t>
+          <t>model_4_3_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6396067525842409</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2516758757544562</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7144447231633606</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1487451737736621</v>
       </c>
       <c r="F24" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3988490998744965</v>
       </c>
       <c r="G24" t="n">
-        <v>2.097197294235229</v>
+        <v>1.682558417320251</v>
       </c>
       <c r="H24" t="n">
-        <v>1.011167883872986</v>
+        <v>0.3032592535018921</v>
       </c>
       <c r="I24" t="n">
-        <v>1.586124777793884</v>
+        <v>1.033475756645203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_11</t>
+          <t>model_4_3_16</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.639901065312843</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.06528814843189723</v>
+        <v>-0.2533361979105349</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.7203939846627243</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.1502195761469</v>
       </c>
       <c r="F25" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3985233902931213</v>
       </c>
       <c r="G25" t="n">
-        <v>2.097197294235229</v>
+        <v>1.684790134429932</v>
       </c>
       <c r="H25" t="n">
-        <v>1.011167883872986</v>
+        <v>0.2969411611557007</v>
       </c>
       <c r="I25" t="n">
-        <v>1.586124777793884</v>
+        <v>1.031685829162598</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_24</t>
+          <t>model_4_3_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6669208972525469</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.06528814843189723</v>
+        <v>0.2440808261337821</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.09259516890263964</v>
+        <v>0.9749321129576011</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.06726077746042458</v>
+        <v>0.5465763416594562</v>
       </c>
       <c r="F26" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3686204254627228</v>
       </c>
       <c r="G26" t="n">
-        <v>2.097197294235229</v>
+        <v>1.016140222549438</v>
       </c>
       <c r="H26" t="n">
-        <v>1.011167883872986</v>
+        <v>0.02662205696105957</v>
       </c>
       <c r="I26" t="n">
-        <v>1.586124777793884</v>
+        <v>0.5504841804504395</v>
       </c>
     </row>
   </sheetData>
